--- a/3팀 DB테이블.xlsx
+++ b/3팀 DB테이블.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimdo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimdo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4DD763-BD9B-4DEF-B02E-BBB7DDA91C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD74545-0034-46B6-ADD5-1984147C9211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF267CC1-CAC3-4BDD-89EB-BCCD03EE1B4A}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
-  <si>
-    <t>게시글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,18 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추천수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +187,62 @@
   </si>
   <si>
     <t>pclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자/사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd/rcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E75AE-1E83-41FB-A78E-B317C5BF071F}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -593,308 +625,495 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
+      <c r="D43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
